--- a/data/trans_dic/P1803_2016_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1803_2016_2023-Provincia-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.09572349088409413</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1664311165534153</v>
+        <v>0.1664311165534152</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04710761086767688</v>
+        <v>0.05019089339601449</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1017830776106475</v>
+        <v>0.1035444636964652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08146862283556927</v>
+        <v>0.08006573266155974</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.164601422443055</v>
+        <v>0.1660133924330209</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07254831580185399</v>
+        <v>0.07338039469455182</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1425638695612225</v>
+        <v>0.1426761582417866</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1121048332894077</v>
+        <v>0.1129437811115705</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1754423275897816</v>
+        <v>0.1763611258638576</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1588727123705998</v>
+        <v>0.1573778304999584</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2368509804826739</v>
+        <v>0.2351653097672895</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1255600939217106</v>
+        <v>0.1227247097130638</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1943085884216595</v>
+        <v>0.1955081320065095</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.02396824919625576</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.06972606914400591</v>
+        <v>0.06972606914400592</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01063782150734378</v>
+        <v>0.009431834680195214</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03423893543976806</v>
+        <v>0.03557888308373951</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01450791096322799</v>
+        <v>0.01563630608867117</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06081353661685836</v>
+        <v>0.06307275316645194</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0149817096272963</v>
+        <v>0.0148243321977778</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05441366458341376</v>
+        <v>0.05408061958168611</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03845439815551742</v>
+        <v>0.04058100461820673</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08800001090149755</v>
+        <v>0.09242023146907979</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04444500833063477</v>
+        <v>0.04548773977650627</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1090874929126268</v>
+        <v>0.1088118902550615</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03494986431620344</v>
+        <v>0.0357199965930879</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08932061314482057</v>
+        <v>0.08885115993930455</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.0188550529543257</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.11200997667381</v>
+        <v>0.1120099766738101</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005640662957721407</v>
+        <v>0.005797997641245643</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07571237837722321</v>
+        <v>0.07204028606002505</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008912490688926375</v>
+        <v>0.008885701995008518</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09351018777913048</v>
+        <v>0.09178110235141439</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009861224053754763</v>
+        <v>0.009944247372294367</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09294645401571897</v>
+        <v>0.09124242037999687</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03784300959338507</v>
+        <v>0.03803183202282847</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1446187075798908</v>
+        <v>0.1396768340697083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04154713167586803</v>
+        <v>0.04134562739018428</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1507125052401657</v>
+        <v>0.1520380610109615</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03333953982129197</v>
+        <v>0.03150554566168425</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1358192924508231</v>
+        <v>0.1342032948567864</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04837297298958004</v>
+        <v>0.05066528504025983</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06614403155815246</v>
+        <v>0.06502989435667271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04704904684579277</v>
+        <v>0.04428527670347432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08843013003510432</v>
+        <v>0.08782628313271881</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05364530636545476</v>
+        <v>0.05470891326459365</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08596231907643286</v>
+        <v>0.08530854548613619</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.107658645043903</v>
+        <v>0.1095365050973194</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1370989829639956</v>
+        <v>0.1427227234798372</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09931105426616317</v>
+        <v>0.09795579966304209</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1418805602520658</v>
+        <v>0.1435368187203942</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09243904280774626</v>
+        <v>0.0933101229096711</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1278651769963847</v>
+        <v>0.1313685127078339</v>
       </c>
     </row>
     <row r="16">
@@ -946,13 +946,13 @@
         <v>0.03813890734567561</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02874959005486503</v>
+        <v>0.02874959005486502</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02994559677226063</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.03274128542330695</v>
+        <v>0.03274128542330694</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008030614086239717</v>
+        <v>0.008034193585032942</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01681005419973309</v>
+        <v>0.01743473993505389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01817885423850241</v>
+        <v>0.01818144049095399</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01529171419118694</v>
+        <v>0.01681836640334655</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01686319042863258</v>
+        <v>0.01600848968948412</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0204772909708025</v>
+        <v>0.02035450339850622</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05161446353786606</v>
+        <v>0.04485165333509356</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07267229219028341</v>
+        <v>0.08045896574586719</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.069629895706705</v>
+        <v>0.07265466909464435</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04975390562712097</v>
+        <v>0.05140079946810953</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05086848314523128</v>
+        <v>0.0487154296223766</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04943709482416545</v>
+        <v>0.05209372773617182</v>
       </c>
     </row>
     <row r="19">
@@ -1022,13 +1022,13 @@
         <v>0.07567472299682104</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.08346158648534366</v>
+        <v>0.08346158648534367</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.04421820474837573</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1358459016271076</v>
+        <v>0.1358459016271075</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.05965339104856741</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04566184207218642</v>
+        <v>0.0474326998559786</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05844855341274563</v>
+        <v>0.05242620731038024</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02247666731647949</v>
+        <v>0.02221980828758301</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.108038857206729</v>
+        <v>0.107216525764369</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0400253670335675</v>
+        <v>0.04039841215990597</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08690753540382218</v>
+        <v>0.08805414592579767</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1139779290608555</v>
+        <v>0.1231109306466817</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1205564184876796</v>
+        <v>0.1174483394114693</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07246700156816482</v>
+        <v>0.07337702495091221</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1715891540463018</v>
+        <v>0.1733626431099373</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08218582280976247</v>
+        <v>0.08297536447491746</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1329035018288797</v>
+        <v>0.1321789268110018</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03499995798504572</v>
+        <v>0.0359447694379344</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09681786223239297</v>
+        <v>0.09932227274363263</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04046892479695886</v>
+        <v>0.03920859632859142</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1226570482529259</v>
+        <v>0.1210867485376914</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0416387597920593</v>
+        <v>0.04074168464829333</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1175371747394168</v>
+        <v>0.1163568097916154</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07183243283845188</v>
+        <v>0.07230461202368185</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1579307177798463</v>
+        <v>0.1564058522518934</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07792937800155479</v>
+        <v>0.07472899428977882</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1654522946566752</v>
+        <v>0.1667903595669113</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06740376083996404</v>
+        <v>0.06742950652437121</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1530175254541831</v>
+        <v>0.1536728080415929</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02756021043556781</v>
+        <v>0.02719482548703141</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01391119323672693</v>
+        <v>0.01383563054032043</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04990758933145586</v>
+        <v>0.04922035134636091</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01583697913010381</v>
+        <v>0.01629061153356039</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04323655660453405</v>
+        <v>0.04339670983453565</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01660911612301822</v>
+        <v>0.01720385028773593</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05721060011431706</v>
+        <v>0.05569226133898793</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03875096740681937</v>
+        <v>0.03632577607219296</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08735087464194154</v>
+        <v>0.08682502750706304</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03400524955918326</v>
+        <v>0.03410289548948974</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06675249050354988</v>
+        <v>0.0665327679917332</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0320513076628674</v>
+        <v>0.03163679222128598</v>
       </c>
     </row>
     <row r="28">
@@ -1280,7 +1280,7 @@
         <v>0.05061491129271722</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.08984113736797675</v>
+        <v>0.08984113736797676</v>
       </c>
     </row>
     <row r="29">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03863103697458815</v>
+        <v>0.03864543730584946</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.06989497205112116</v>
+        <v>0.06974268496579876</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.04757200716565334</v>
+        <v>0.04718654689299749</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.09123318822905967</v>
+        <v>0.09077431114984584</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04512500734962572</v>
+        <v>0.04547872532519533</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.08370663893180499</v>
+        <v>0.08391791950242071</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0536402934647028</v>
+        <v>0.05350592578684288</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.08964592226589606</v>
+        <v>0.0901020470619205</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0640300380394426</v>
+        <v>0.06377454952084659</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1078936863307551</v>
+        <v>0.1082149185606959</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05659059825878934</v>
+        <v>0.05607738517900533</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.09642219314618809</v>
+        <v>0.09680929483629289</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13838</v>
+        <v>14744</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32453</v>
+        <v>33015</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23520</v>
+        <v>23115</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>52024</v>
+        <v>52470</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>42257</v>
+        <v>42741</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>90515</v>
+        <v>90586</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32932</v>
+        <v>33178</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>55939</v>
+        <v>56232</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45867</v>
+        <v>45435</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>74859</v>
+        <v>74327</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>73134</v>
+        <v>71483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>123368</v>
+        <v>124129</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5346</v>
+        <v>4740</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18169</v>
+        <v>18880</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7589</v>
+        <v>8179</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33156</v>
+        <v>34388</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15366</v>
+        <v>15205</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>58541</v>
+        <v>58183</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19326</v>
+        <v>20395</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>46697</v>
+        <v>49043</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23248</v>
+        <v>23794</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>59476</v>
+        <v>59326</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>35847</v>
+        <v>36637</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>96096</v>
+        <v>95591</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1797</v>
+        <v>1847</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23925</v>
+        <v>22764</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2997</v>
+        <v>2988</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>33275</v>
+        <v>32660</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6458</v>
+        <v>6512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>62445</v>
+        <v>61300</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12055</v>
+        <v>12116</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45698</v>
+        <v>44137</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13973</v>
+        <v>13905</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>53630</v>
+        <v>54102</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21833</v>
+        <v>20632</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>91248</v>
+        <v>90163</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17896</v>
+        <v>18744</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24681</v>
+        <v>24266</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18221</v>
+        <v>17151</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>37314</v>
+        <v>37059</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>40623</v>
+        <v>41428</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>68349</v>
+        <v>67829</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39830</v>
+        <v>40525</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51158</v>
+        <v>53256</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38461</v>
+        <v>37937</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>59868</v>
+        <v>60567</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>69999</v>
+        <v>70659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>101666</v>
+        <v>104452</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3457</v>
+        <v>3586</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>3974</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3475</v>
+        <v>3821</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7248</v>
+        <v>6881</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8864</v>
+        <v>8811</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10902</v>
+        <v>9474</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14946</v>
+        <v>16548</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15220</v>
+        <v>15881</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11305</v>
+        <v>11679</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21864</v>
+        <v>20938</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>21400</v>
+        <v>22550</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>12015</v>
+        <v>12481</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>15822</v>
+        <v>14192</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6139</v>
+        <v>6069</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>28495</v>
+        <v>28278</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>21463</v>
+        <v>21663</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>46448</v>
+        <v>47061</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>29990</v>
+        <v>32393</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>32635</v>
+        <v>31794</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>19792</v>
+        <v>20040</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>45257</v>
+        <v>45724</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>44071</v>
+        <v>44495</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>71031</v>
+        <v>70644</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>22980</v>
+        <v>23600</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>69679</v>
+        <v>71481</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>27976</v>
+        <v>27105</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>94698</v>
+        <v>93486</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>56123</v>
+        <v>54914</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>175335</v>
+        <v>173575</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>47162</v>
+        <v>47472</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>113661</v>
+        <v>112563</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>53872</v>
+        <v>51660</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>127739</v>
+        <v>128772</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>90850</v>
+        <v>90885</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>228263</v>
+        <v>229240</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>21458</v>
+        <v>21173</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>11102</v>
+        <v>11042</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>41232</v>
+        <v>40664</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13166</v>
+        <v>13543</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>69384</v>
+        <v>69641</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>27063</v>
+        <v>28032</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>44543</v>
+        <v>43361</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>30926</v>
+        <v>28991</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>72166</v>
+        <v>71732</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>28270</v>
+        <v>28351</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>107121</v>
+        <v>106768</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>52224</v>
+        <v>51549</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>131127</v>
+        <v>131176</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>246922</v>
+        <v>246384</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>168621</v>
+        <v>167255</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>340613</v>
+        <v>338900</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>313118</v>
+        <v>315572</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>608229</v>
+        <v>609764</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>182074</v>
+        <v>181618</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>316698</v>
+        <v>318309</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>226957</v>
+        <v>226052</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>402814</v>
+        <v>404013</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>392676</v>
+        <v>389115</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>700622</v>
+        <v>703435</v>
       </c>
     </row>
     <row r="40">
